--- a/fabrication/V0.0.3/_cpl_bl49sp_front_V0.0.3_20210202.xlsx
+++ b/fabrication/V0.0.3/_cpl_bl49sp_front_V0.0.3_20210202.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="164">
   <si>
     <t xml:space="preserve">Designator</t>
   </si>
@@ -40,228 +40,228 @@
     <t xml:space="preserve">C1</t>
   </si>
   <si>
+    <t xml:space="preserve">10.1600mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4100mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0200mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9600mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3800mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.2400mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5100mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.0200mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0300mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6100mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.2100mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2100mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3400mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4100mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.5500mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2700mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7500mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.7500mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3700mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4300mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5400mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8800mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0800mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0200mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6400mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1400mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.7300mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5400mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.8200mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4800mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.6100mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1800mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.5100mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2400mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.6700mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8700mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8500mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5400mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7500mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1900mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7000mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2400mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0300mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9200mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0200mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2900mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC3</t>
+  </si>
+  <si>
     <t xml:space="preserve">9.5300mm</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4100mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9600mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4800mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3800mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.2400mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5100mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.0200mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0300mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6100mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.2100mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2100mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3400mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4100mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.5500mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2700mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7500mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.7500mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3700mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4300mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5400mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2400mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0200mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0800mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4500mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6400mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1400mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.7300mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5400mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.8200mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4800mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.6100mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1800mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.5100mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2400mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.6700mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8700mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8500mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5400mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7500mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1900mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2900mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2400mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0300mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9200mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0200mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2900mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IC3</t>
-  </si>
-  <si>
     <t xml:space="preserve">45.0900mm</t>
   </si>
   <si>
@@ -286,7 +286,10 @@
     <t xml:space="preserve">LED1</t>
   </si>
   <si>
-    <t xml:space="preserve">48.4200mm</t>
+    <t xml:space="preserve">6.1900mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1100mm</t>
   </si>
   <si>
     <t xml:space="preserve">LED2</t>
@@ -295,162 +298,153 @@
     <t xml:space="preserve">22.7000mm</t>
   </si>
   <si>
+    <t xml:space="preserve">43.8200mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.9900mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7800mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.2900mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6000mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6500mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.8000mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5600mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.3400mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.3100mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1300mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9500mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.2800mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.5800mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.5600mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.1800mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0800mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8000mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3200mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1100mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3400mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.5600mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1800mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R53</t>
+  </si>
+  <si>
     <t xml:space="preserve">44.7700mm</t>
   </si>
   <si>
-    <t xml:space="preserve">LED3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.8300mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7800mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.2900mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6900mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.8000mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6500mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.8000mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5600mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.3400mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.3100mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1300mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9500mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.2800mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8800mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.5800mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.5600mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7000mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.1800mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0800mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8000mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3200mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1100mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3400mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.5600mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5000mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R53</t>
-  </si>
-  <si>
     <t xml:space="preserve">R54</t>
   </si>
   <si>
     <t xml:space="preserve">R57</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3800mm</t>
-  </si>
-  <si>
     <t xml:space="preserve">21.4300mm</t>
   </si>
   <si>
     <t xml:space="preserve">R58</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8400mm</t>
-  </si>
-  <si>
     <t xml:space="preserve">20.8000mm</t>
   </si>
   <si>
     <t xml:space="preserve">R68</t>
   </si>
   <si>
+    <t xml:space="preserve">13.4900mm</t>
+  </si>
+  <si>
     <t xml:space="preserve">13.9700mm</t>
   </si>
   <si>
@@ -490,7 +484,7 @@
     <t xml:space="preserve">U$1</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7000mm</t>
+    <t xml:space="preserve">13.3400mm</t>
   </si>
   <si>
     <t xml:space="preserve">18.5700mm</t>
@@ -508,7 +502,7 @@
     <t xml:space="preserve">R12</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0000mm</t>
+    <t xml:space="preserve">10.6400mm</t>
   </si>
   <si>
     <t xml:space="preserve">15.5600mm</t>
@@ -517,7 +511,7 @@
     <t xml:space="preserve">R13</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9400mm</t>
+    <t xml:space="preserve">8.5700mm</t>
   </si>
 </sst>
 </file>
@@ -658,11 +652,11 @@
   </sheetPr>
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.04"/>
@@ -914,10 +908,10 @@
         <v>41</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>8</v>
@@ -928,13 +922,13 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>8</v>
@@ -945,13 +939,13 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>8</v>
@@ -962,13 +956,13 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>8</v>
@@ -979,13 +973,13 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>55</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>8</v>
@@ -996,13 +990,13 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>8</v>
@@ -1013,13 +1007,13 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="C21" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>8</v>
@@ -1030,13 +1024,13 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>8</v>
@@ -1047,13 +1041,13 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="C23" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>67</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>8</v>
@@ -1064,13 +1058,13 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>8</v>
@@ -1081,30 +1075,30 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>72</v>
-      </c>
       <c r="D25" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E25" s="4" t="n">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="C26" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>75</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>8</v>
@@ -1115,13 +1109,13 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="C27" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>8</v>
@@ -1132,10 +1126,10 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>6</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>80</v>
@@ -1186,27 +1180,27 @@
         <v>87</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E31" s="4" t="n">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>8</v>
@@ -1217,13 +1211,13 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>8</v>
@@ -1234,13 +1228,13 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>8</v>
@@ -1251,13 +1245,13 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>8</v>
@@ -1325,7 +1319,7 @@
         <v>109</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>8</v>
@@ -1356,10 +1350,10 @@
         <v>113</v>
       </c>
       <c r="B41" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>114</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>115</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>8</v>
@@ -1370,13 +1364,13 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>117</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>8</v>
@@ -1387,13 +1381,13 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>120</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>8</v>
@@ -1404,10 +1398,10 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>112</v>
@@ -1421,13 +1415,13 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>8</v>
@@ -1438,13 +1432,13 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>125</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>127</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>8</v>
@@ -1455,13 +1449,13 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>130</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>8</v>
@@ -1472,30 +1466,30 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E48" s="4" t="n">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>8</v>
@@ -1506,13 +1500,13 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>8</v>
@@ -1523,13 +1517,13 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>8</v>
@@ -1540,13 +1534,13 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>136</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>138</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>8</v>
@@ -1557,13 +1551,13 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>140</v>
+        <v>53</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>8</v>
@@ -1574,13 +1568,13 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>8</v>
@@ -1591,13 +1585,13 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>8</v>
@@ -1608,13 +1602,13 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>8</v>
@@ -1625,13 +1619,13 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>8</v>
@@ -1642,10 +1636,10 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>112</v>
@@ -1659,13 +1653,13 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>8</v>
@@ -1676,10 +1670,10 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>112</v>
@@ -1693,13 +1687,13 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>157</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>8</v>
@@ -1710,10 +1704,10 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>22</v>
@@ -1727,13 +1721,13 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>8</v>
@@ -1744,13 +1738,13 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C64" s="5" t="s">
         <v>161</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>163</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>8</v>
@@ -1761,13 +1755,13 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>8</v>
